--- a/algorithms/experiments/adjmatrix.xlsx
+++ b/algorithms/experiments/adjmatrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sushrit/Documents/1.SIUE/Courses/Spring2024/Design of algorithms/Project/Webapp/Intelligent-Routing-for-Emergency-Services-in-Edwardsville/algorithms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SIUE\2nd sem\DAA\Project\Intelligent-Routing-for-Emergency-Services-in-Edwardsville\algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4006BBD-2C92-DB41-9E0D-93544BEE120C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEF6C9A-9A1D-4972-B2C0-C1145F3CFEBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="33520" windowHeight="20500" xr2:uid="{F4ED4291-A30C-724C-8B57-2C7475F4AD32}"/>
+    <workbookView xWindow="14295" yWindow="2325" windowWidth="14115" windowHeight="12615" xr2:uid="{F4ED4291-A30C-724C-8B57-2C7475F4AD32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>EB</t>
   </si>
@@ -53,13 +42,28 @@
     <t>AH</t>
   </si>
   <si>
+    <t>CVA</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>EFI</t>
+  </si>
+  <si>
+    <t>EFIII</t>
+  </si>
+  <si>
     <t>EFII</t>
-  </si>
-  <si>
-    <t>EFIII</t>
-  </si>
-  <si>
-    <t>EFI</t>
   </si>
 </sst>
 </file>
@@ -411,26 +415,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C48CF0-BC5C-0849-90C2-EA11DFC7E01B}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="O16" sqref="N1:O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -444,8 +448,23 @@
       <c r="I1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -473,10 +492,25 @@
       <c r="I2">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>2.1</v>
+      </c>
+      <c r="K2">
+        <v>1.2</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>3.1</v>
+      </c>
+      <c r="N2">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>3.9</v>
@@ -502,10 +536,25 @@
       <c r="I3">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <v>2.8</v>
+      </c>
+      <c r="K3">
+        <v>3.5</v>
+      </c>
+      <c r="L3">
+        <v>3.7</v>
+      </c>
+      <c r="M3">
+        <v>2.8</v>
+      </c>
+      <c r="N3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>4.3</v>
@@ -531,10 +580,25 @@
       <c r="I4">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>4.5</v>
+      </c>
+      <c r="K4">
+        <v>6.3</v>
+      </c>
+      <c r="L4">
+        <v>6.5</v>
+      </c>
+      <c r="M4">
+        <v>3.8</v>
+      </c>
+      <c r="N4">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0.6</v>
@@ -560,8 +624,23 @@
       <c r="I5">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>1.9</v>
+      </c>
+      <c r="K5">
+        <v>0.6</v>
+      </c>
+      <c r="L5">
+        <v>0.4</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -589,8 +668,23 @@
       <c r="I6">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K6">
+        <v>3.5</v>
+      </c>
+      <c r="L6">
+        <v>3.7</v>
+      </c>
+      <c r="M6">
+        <v>2.8</v>
+      </c>
+      <c r="N6">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -618,8 +712,23 @@
       <c r="I7">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>3.7</v>
+      </c>
+      <c r="K7">
+        <v>3.2</v>
+      </c>
+      <c r="L7">
+        <v>3.4</v>
+      </c>
+      <c r="M7">
+        <v>2.8</v>
+      </c>
+      <c r="N7">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -647,8 +756,23 @@
       <c r="I8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>1.9</v>
+      </c>
+      <c r="K8">
+        <v>2.5</v>
+      </c>
+      <c r="L8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M8">
+        <v>2.4</v>
+      </c>
+      <c r="N8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -674,6 +798,241 @@
         <v>5</v>
       </c>
       <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K9">
+        <v>6.3</v>
+      </c>
+      <c r="L9">
+        <v>6.5</v>
+      </c>
+      <c r="M9">
+        <v>3.7</v>
+      </c>
+      <c r="N9">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>2.1</v>
+      </c>
+      <c r="C10">
+        <v>2.8</v>
+      </c>
+      <c r="D10">
+        <v>4.5</v>
+      </c>
+      <c r="E10">
+        <v>1.9</v>
+      </c>
+      <c r="F10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G10">
+        <v>3.7</v>
+      </c>
+      <c r="H10">
+        <v>1.9</v>
+      </c>
+      <c r="I10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>2.5</v>
+      </c>
+      <c r="L10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N10">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>1.2</v>
+      </c>
+      <c r="C11">
+        <v>3.5</v>
+      </c>
+      <c r="D11">
+        <v>6.3</v>
+      </c>
+      <c r="E11">
+        <v>0.6</v>
+      </c>
+      <c r="F11">
+        <v>3.5</v>
+      </c>
+      <c r="G11">
+        <v>3.2</v>
+      </c>
+      <c r="H11">
+        <v>2.5</v>
+      </c>
+      <c r="I11">
+        <v>6.3</v>
+      </c>
+      <c r="J11">
+        <v>2.5</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0.2</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>3.7</v>
+      </c>
+      <c r="D12">
+        <v>6.5</v>
+      </c>
+      <c r="E12">
+        <v>0.4</v>
+      </c>
+      <c r="F12">
+        <v>3.7</v>
+      </c>
+      <c r="G12">
+        <v>3.4</v>
+      </c>
+      <c r="H12">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I12">
+        <v>6.5</v>
+      </c>
+      <c r="J12">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K12">
+        <v>0.2</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N12">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>3.1</v>
+      </c>
+      <c r="C13">
+        <v>2.8</v>
+      </c>
+      <c r="D13">
+        <v>3.8</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>2.8</v>
+      </c>
+      <c r="G13">
+        <v>2.8</v>
+      </c>
+      <c r="H13">
+        <v>2.4</v>
+      </c>
+      <c r="I13">
+        <v>3.7</v>
+      </c>
+      <c r="J13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>3.1</v>
+      </c>
+      <c r="C14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D14">
+        <v>4.3</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H14">
+        <v>2.6</v>
+      </c>
+      <c r="I14">
+        <v>4.3</v>
+      </c>
+      <c r="J14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K14">
+        <v>3.5</v>
+      </c>
+      <c r="L14">
+        <v>3.3</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
         <v>0</v>
       </c>
     </row>
